--- a/electricity_and_price_dataset_test.xlsx
+++ b/electricity_and_price_dataset_test.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:P626"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A601" workbookViewId="0">
-      <selection activeCell="A619" sqref="A608:P619"/>
+      <selection activeCell="A615" sqref="A615:AC626"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23662,54 +23662,383 @@
       </c>
     </row>
     <row r="608" spans="1:16">
-      <c r="A608" s="2"/>
-    </row>
-    <row r="609" spans="1:1">
-      <c r="A609" s="2"/>
-    </row>
-    <row r="610" spans="1:1">
-      <c r="A610" s="2"/>
-    </row>
-    <row r="611" spans="1:1">
-      <c r="A611" s="2"/>
-    </row>
-    <row r="612" spans="1:1">
-      <c r="A612" s="2"/>
-    </row>
-    <row r="613" spans="1:1">
-      <c r="A613" s="2"/>
-    </row>
-    <row r="614" spans="1:1">
-      <c r="A614" s="2"/>
-    </row>
-    <row r="615" spans="1:1">
+      <c r="A608" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B608">
+        <v>412.23500000000001</v>
+      </c>
+      <c r="C608">
+        <v>1.5660000000000001</v>
+      </c>
+      <c r="D608">
+        <v>12.102</v>
+      </c>
+      <c r="E608">
+        <v>425.90199999999999</v>
+      </c>
+      <c r="F608">
+        <v>3.2170000000000001</v>
+      </c>
+      <c r="G608">
+        <v>1.9630000000000001</v>
+      </c>
+      <c r="H608">
+        <v>1.254</v>
+      </c>
+      <c r="I608">
+        <v>28.542999999999999</v>
+      </c>
+      <c r="J608">
+        <v>386.43200000000002</v>
+      </c>
+      <c r="K608">
+        <v>12.180999999999999</v>
+      </c>
+      <c r="L608">
+        <v>398.61200000000002</v>
+      </c>
+      <c r="M608">
+        <v>24.07</v>
+      </c>
+      <c r="N608">
+        <v>27.43</v>
+      </c>
+      <c r="O608">
+        <v>26.6</v>
+      </c>
+      <c r="P608">
+        <v>25.78</v>
+      </c>
+    </row>
+    <row r="609" spans="1:16">
+      <c r="A609" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B609">
+        <v>410.08699999999999</v>
+      </c>
+      <c r="C609">
+        <v>1.542</v>
+      </c>
+      <c r="D609">
+        <v>12.413</v>
+      </c>
+      <c r="E609">
+        <v>424.04199999999997</v>
+      </c>
+      <c r="F609">
+        <v>3.0009999999999999</v>
+      </c>
+      <c r="G609">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="H609">
+        <v>1.395</v>
+      </c>
+      <c r="I609">
+        <v>21.1</v>
+      </c>
+      <c r="J609">
+        <v>391.9</v>
+      </c>
+      <c r="K609">
+        <v>12.436</v>
+      </c>
+      <c r="L609">
+        <v>404.33600000000001</v>
+      </c>
+      <c r="M609">
+        <v>23.39</v>
+      </c>
+      <c r="N609">
+        <v>24.92</v>
+      </c>
+      <c r="O609">
+        <v>22.46</v>
+      </c>
+      <c r="P609">
+        <v>23.97</v>
+      </c>
+    </row>
+    <row r="610" spans="1:16">
+      <c r="A610" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B610">
+        <v>345.95600000000002</v>
+      </c>
+      <c r="C610">
+        <v>1.427</v>
+      </c>
+      <c r="D610">
+        <v>11.664</v>
+      </c>
+      <c r="E610">
+        <v>359.04700000000003</v>
+      </c>
+      <c r="F610">
+        <v>2.3559999999999999</v>
+      </c>
+      <c r="G610">
+        <v>2.25</v>
+      </c>
+      <c r="H610">
+        <v>0.106</v>
+      </c>
+      <c r="I610">
+        <v>1.357</v>
+      </c>
+      <c r="J610">
+        <v>346.12900000000002</v>
+      </c>
+      <c r="K610">
+        <v>11.667</v>
+      </c>
+      <c r="L610">
+        <v>357.79500000000002</v>
+      </c>
+      <c r="M610">
+        <v>19.68</v>
+      </c>
+      <c r="N610">
+        <v>21.16</v>
+      </c>
+      <c r="O610">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="P610">
+        <v>20.34</v>
+      </c>
+    </row>
+    <row r="611" spans="1:16">
+      <c r="A611" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B611">
+        <v>316.80200000000002</v>
+      </c>
+      <c r="C611">
+        <v>1.3640000000000001</v>
+      </c>
+      <c r="D611">
+        <v>11.33</v>
+      </c>
+      <c r="E611">
+        <v>329.49700000000001</v>
+      </c>
+      <c r="F611">
+        <v>2.2109999999999999</v>
+      </c>
+      <c r="G611">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="H611">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="I611">
+        <v>10.513999999999999</v>
+      </c>
+      <c r="J611">
+        <v>307.87400000000002</v>
+      </c>
+      <c r="K611">
+        <v>11.314</v>
+      </c>
+      <c r="L611">
+        <v>319.18799999999999</v>
+      </c>
+      <c r="M611">
+        <v>24.02</v>
+      </c>
+      <c r="N611">
+        <v>25.21</v>
+      </c>
+      <c r="O611">
+        <v>25</v>
+      </c>
+      <c r="P611">
+        <v>24.66</v>
+      </c>
+    </row>
+    <row r="612" spans="1:16">
+      <c r="A612" s="2">
+        <v>45231</v>
+      </c>
+      <c r="B612">
+        <v>308.93400000000003</v>
+      </c>
+      <c r="C612">
+        <v>1.393</v>
+      </c>
+      <c r="D612">
+        <v>11.776</v>
+      </c>
+      <c r="E612">
+        <v>322.10300000000001</v>
+      </c>
+      <c r="F612">
+        <v>2.4689999999999999</v>
+      </c>
+      <c r="G612">
+        <v>1.829</v>
+      </c>
+      <c r="H612">
+        <v>0.64</v>
+      </c>
+      <c r="I612">
+        <v>17.52</v>
+      </c>
+      <c r="J612">
+        <v>293.48700000000002</v>
+      </c>
+      <c r="K612">
+        <v>11.737</v>
+      </c>
+      <c r="L612">
+        <v>305.22399999999999</v>
+      </c>
+      <c r="M612">
+        <v>21.44</v>
+      </c>
+      <c r="N612">
+        <v>21.92</v>
+      </c>
+      <c r="O612">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="P612">
+        <v>21.55</v>
+      </c>
+    </row>
+    <row r="613" spans="1:16">
+      <c r="A613" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B613">
+        <v>332.392</v>
+      </c>
+      <c r="C613">
+        <v>1.462</v>
+      </c>
+      <c r="D613">
+        <v>12.534000000000001</v>
+      </c>
+      <c r="E613">
+        <v>346.387</v>
+      </c>
+      <c r="F613">
+        <v>3.202</v>
+      </c>
+      <c r="G613">
+        <v>1.863</v>
+      </c>
+      <c r="H613">
+        <v>1.339</v>
+      </c>
+      <c r="I613">
+        <v>24.294</v>
+      </c>
+      <c r="J613">
+        <v>310.959</v>
+      </c>
+      <c r="K613">
+        <v>12.473000000000001</v>
+      </c>
+      <c r="L613">
+        <v>323.43200000000002</v>
+      </c>
+      <c r="M613">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="N613">
+        <v>20.16</v>
+      </c>
+      <c r="O613">
+        <v>19.14</v>
+      </c>
+      <c r="P613">
+        <v>19.760000000000002</v>
+      </c>
+    </row>
+    <row r="614" spans="1:16">
+      <c r="A614" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B614">
+        <v>365.625</v>
+      </c>
+      <c r="C614">
+        <v>1.4810000000000001</v>
+      </c>
+      <c r="D614">
+        <v>12.693</v>
+      </c>
+      <c r="E614">
+        <v>379.79899999999998</v>
+      </c>
+      <c r="F614">
+        <v>3.613</v>
+      </c>
+      <c r="G614">
+        <v>1.8759999999999999</v>
+      </c>
+      <c r="H614">
+        <v>1.7370000000000001</v>
+      </c>
+      <c r="I614">
+        <v>27.893999999999998</v>
+      </c>
+      <c r="J614">
+        <v>341.01</v>
+      </c>
+      <c r="K614">
+        <v>12.632</v>
+      </c>
+      <c r="L614">
+        <v>353.64299999999997</v>
+      </c>
+      <c r="M614">
+        <v>21.96</v>
+      </c>
+      <c r="N614">
+        <v>22.66</v>
+      </c>
+      <c r="O614">
+        <v>21.8</v>
+      </c>
+      <c r="P614">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="615" spans="1:16">
       <c r="A615" s="2"/>
     </row>
-    <row r="616" spans="1:1">
+    <row r="616" spans="1:16">
       <c r="A616" s="2"/>
     </row>
-    <row r="617" spans="1:1">
+    <row r="617" spans="1:16">
       <c r="A617" s="2"/>
     </row>
-    <row r="618" spans="1:1">
+    <row r="618" spans="1:16">
       <c r="A618" s="2"/>
     </row>
-    <row r="619" spans="1:1">
+    <row r="619" spans="1:16">
       <c r="A619" s="2"/>
     </row>
-    <row r="620" spans="1:1">
+    <row r="620" spans="1:16">
       <c r="A620" s="2"/>
     </row>
-    <row r="621" spans="1:1">
+    <row r="621" spans="1:16">
       <c r="A621" s="2"/>
     </row>
-    <row r="622" spans="1:1">
+    <row r="622" spans="1:16">
       <c r="A622" s="2"/>
     </row>
-    <row r="623" spans="1:1">
+    <row r="623" spans="1:16">
       <c r="A623" s="2"/>
     </row>
-    <row r="624" spans="1:1">
+    <row r="624" spans="1:16">
       <c r="A624" s="2"/>
     </row>
     <row r="625" spans="1:1">
